--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1508755.734965199</v>
+        <v>1504618.577715047</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>284.7674442070003</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>370.4327834393856</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>70.72079018684963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.94563726208629</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>279.7713244424673</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>208.412932458414</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>48.39348073981616</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542854</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>135.3264169721219</v>
+        <v>69.29522222635092</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,13 +1192,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>90.69811547110093</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.25605419981077</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>206.550999857772</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788180832</v>
+        <v>39.38542099944592</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143047</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>100.0416311957212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301535</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1855.42872127137</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="C2" t="n">
-        <v>1855.42872127137</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4363,19 +4363,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="Y2" t="n">
-        <v>1855.42872127137</v>
+        <v>1622.544763526515</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.5950217532746</v>
+        <v>1931.908733528368</v>
       </c>
       <c r="C4" t="n">
-        <v>270.5950217532746</v>
+        <v>1762.972550600461</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1612.855911188126</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>1464.942817605733</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>1318.052870107822</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>1150.066405416101</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>1001.327507279607</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>673.0360657270445</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W4" t="n">
-        <v>673.0360657270445</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X4" t="n">
-        <v>673.0360657270445</v>
+        <v>2334.349777502138</v>
       </c>
       <c r="Y4" t="n">
-        <v>452.2434865835144</v>
+        <v>2113.557198358608</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1585.174086820818</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C5" t="n">
-        <v>1585.174086820818</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D5" t="n">
-        <v>1226.908388214067</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2351.8212148058</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2020.758327462229</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796629</v>
+        <v>2020.758327462229</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796629</v>
+        <v>2020.758327462229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820818</v>
+        <v>2020.758327462229</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.0139700109307</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C7" t="n">
-        <v>504.0139700109307</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D7" t="n">
-        <v>353.897330598595</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E7" t="n">
-        <v>205.9842370162019</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>793.4311400478913</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>504.0139700109307</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>504.0139700109307</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y7" t="n">
-        <v>504.0139700109307</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1713.412786206037</v>
+        <v>918.016117921866</v>
       </c>
       <c r="C8" t="n">
-        <v>1713.412786206037</v>
+        <v>918.016117921866</v>
       </c>
       <c r="D8" t="n">
-        <v>1355.147087599287</v>
+        <v>918.016117921866</v>
       </c>
       <c r="E8" t="n">
-        <v>969.3588350010427</v>
+        <v>532.2278653236217</v>
       </c>
       <c r="F8" t="n">
-        <v>558.3729302114352</v>
+        <v>121.2419605340141</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.012626270159</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.012626270159</v>
+        <v>918.016117921866</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.012626270159</v>
+        <v>918.016117921866</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8408313751036</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>292.977684031956</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>142.8610446196202</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426267</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>570.4526592426267</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>342.4631083446094</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.8408313751036</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,28 +5281,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2815.530845237133</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.594662309226</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4681.594624329724</v>
+        <v>2407.179830045467</v>
       </c>
       <c r="S28" t="n">
-        <v>4498.739789984628</v>
+        <v>2224.324995700372</v>
       </c>
       <c r="T28" t="n">
-        <v>4279.13832500757</v>
+        <v>2004.723530723313</v>
       </c>
       <c r="U28" t="n">
-        <v>3990.063098351768</v>
+        <v>1715.648304067511</v>
       </c>
       <c r="V28" t="n">
-        <v>3735.378610145881</v>
+        <v>1460.963815861624</v>
       </c>
       <c r="W28" t="n">
-        <v>3445.96144010892</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="X28" t="n">
-        <v>3217.971889210903</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y28" t="n">
-        <v>2997.179310067373</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2815.530845237133</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3217.971889210903</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>2997.179310067373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>114.3555089013354</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787834</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019047</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515138</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.695835078083388e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>10.85445046951631</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194085</v>
+        <v>26.98982571067572</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>110.0033420516635</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914749.3082663927</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914749.3082663927</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914749.3082663927</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26325,28 +26325,28 @@
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
@@ -26355,7 +26355,7 @@
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.942148086684028e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467442</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719634</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171962</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171962</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719634</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26472,13 +26472,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-827652.3133973313</v>
+        <v>-827652.3133973315</v>
       </c>
       <c r="C6" t="n">
-        <v>287099.4701785878</v>
+        <v>287099.4701785875</v>
       </c>
       <c r="D6" t="n">
         <v>287099.4701785879</v>
       </c>
       <c r="E6" t="n">
-        <v>-111648.7151039188</v>
+        <v>-111996.0943582761</v>
       </c>
       <c r="F6" t="n">
-        <v>395836.7265206268</v>
+        <v>395489.3472662701</v>
       </c>
       <c r="G6" t="n">
-        <v>395836.7265206269</v>
+        <v>395489.3472662701</v>
       </c>
       <c r="H6" t="n">
-        <v>395836.7265206268</v>
+        <v>395489.34726627</v>
       </c>
       <c r="I6" t="n">
-        <v>395836.726520627</v>
+        <v>395489.34726627</v>
       </c>
       <c r="J6" t="n">
-        <v>228231.5487106445</v>
+        <v>227884.1694562875</v>
       </c>
       <c r="K6" t="n">
-        <v>395836.7265206269</v>
+        <v>395489.3472662701</v>
       </c>
       <c r="L6" t="n">
-        <v>395836.7265206269</v>
+        <v>395489.3472662698</v>
       </c>
       <c r="M6" t="n">
-        <v>263229.4327917002</v>
+        <v>262882.0535373433</v>
       </c>
       <c r="N6" t="n">
-        <v>395836.726520627</v>
+        <v>395489.34726627</v>
       </c>
       <c r="O6" t="n">
-        <v>395836.726520627</v>
+        <v>395489.34726627</v>
       </c>
       <c r="P6" t="n">
-        <v>395836.7265206268</v>
+        <v>395489.3472662703</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>69.91559741368269</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11.49758663287616</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>77.89468283136273</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>80.85095794181429</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>102.1590456297945</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>42.632317670048</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>97.02756728311508</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>276.2212858008321</v>
+        <v>342.2524805466031</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>55.73584717546824</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.328599152284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312094</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34792,13 +34792,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>521.873694610508</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>230.83623123219</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313189</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980277</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893641</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>407.323644686765</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>440.9755796648395</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1504618.577715047</v>
+        <v>1506379.108017833</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10641338.18668956</v>
+        <v>10641338.18668955</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>370.4327834393856</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.64596647206317</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>64.74509614230287</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208629</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>399.4056226053783</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>208.412932458414</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542854</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.5227967229209</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>69.29522222635092</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>23.07759500242036</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110093</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>206.550999857772</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>179.7186804608944</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>41.74133133758715</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788180381</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428257</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>39.38542099944592</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833906</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.33703994143047</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1622.544763526515</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C2" t="n">
-        <v>1622.544763526515</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D2" t="n">
-        <v>1622.544763526515</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526515</v>
+        <v>1620.365716834813</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.544763526515</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="Y2" t="n">
-        <v>1622.544763526515</v>
+        <v>1246.899958573734</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1931.908733528368</v>
+        <v>835.4071654353976</v>
       </c>
       <c r="C4" t="n">
-        <v>1762.972550600461</v>
+        <v>835.4071654353976</v>
       </c>
       <c r="D4" t="n">
-        <v>1612.855911188126</v>
+        <v>685.2905260230618</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.942817605733</v>
+        <v>537.3774324406687</v>
       </c>
       <c r="F4" t="n">
-        <v>1318.052870107822</v>
+        <v>390.4874849427583</v>
       </c>
       <c r="G4" t="n">
-        <v>1150.066405416101</v>
+        <v>222.5010202510369</v>
       </c>
       <c r="H4" t="n">
-        <v>1001.327507279607</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W4" t="n">
-        <v>2562.339328400155</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X4" t="n">
-        <v>2334.349777502138</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="Y4" t="n">
-        <v>2113.557198358608</v>
+        <v>835.4071654353976</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1634.158487398107</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>865.6727141913261</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>454.6868094017186</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872922</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2351.8212148058</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2020.758327462229</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2020.758327462229</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2020.758327462229</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>2020.758327462229</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657498</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378429</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255072</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E7" t="n">
-        <v>249.632439243114</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452037</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800315</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>1101.345159625889</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1101.345159625889</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.03939913952</v>
+        <v>1101.345159625889</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959895</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.016117921866</v>
+        <v>1591.095540256643</v>
       </c>
       <c r="C8" t="n">
-        <v>918.016117921866</v>
+        <v>1591.095540256643</v>
       </c>
       <c r="D8" t="n">
-        <v>918.016117921866</v>
+        <v>1591.095540256643</v>
       </c>
       <c r="E8" t="n">
-        <v>532.2278653236217</v>
+        <v>1205.307287658398</v>
       </c>
       <c r="F8" t="n">
-        <v>121.2419605340141</v>
+        <v>794.3213828687908</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>378.6166325930797</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>74.55748859064994</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.25053145306</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182946</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>918.016117921866</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.016117921866</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598628</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>292.977684031956</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196202</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>142.86104461962</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>142.86104461962</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>142.86104461962</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>142.86104461962</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.761631868611</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
         <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336327</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901026</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,13 +5296,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239598</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.212916266271</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820878</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,40 +5740,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2407.179830045467</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.324995700372</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2004.723530723313</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1715.648304067511</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1460.963815861624</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1171.546645824663</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1171.546645824663</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.7540666811333</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6542,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>115.6734722078199</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,7 +6782,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998295</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998295</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998295</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
         <v>484.8112968429803</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013354</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787834</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515138</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>154.0169020165191</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.695835078083388e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>10.85445046951631</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>45.99097492814278</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>98.55338150863673</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194126</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194129</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.98982571067572</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409392978</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663922</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663927</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>4.942148086684028e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467442</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171962</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171962</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26472,13 +26472,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-827652.3133973315</v>
       </c>
       <c r="C6" t="n">
-        <v>287099.4701785875</v>
+        <v>287099.4701785881</v>
       </c>
       <c r="D6" t="n">
-        <v>287099.4701785879</v>
+        <v>287099.4701785882</v>
       </c>
       <c r="E6" t="n">
-        <v>-111996.0943582761</v>
+        <v>-111683.4530293541</v>
       </c>
       <c r="F6" t="n">
-        <v>395489.3472662701</v>
+        <v>395801.9885951907</v>
       </c>
       <c r="G6" t="n">
-        <v>395489.3472662701</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="H6" t="n">
-        <v>395489.34726627</v>
+        <v>395801.988595191</v>
       </c>
       <c r="I6" t="n">
-        <v>395489.34726627</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="J6" t="n">
-        <v>227884.1694562875</v>
+        <v>228196.8107852085</v>
       </c>
       <c r="K6" t="n">
-        <v>395489.3472662701</v>
+        <v>395801.988595191</v>
       </c>
       <c r="L6" t="n">
-        <v>395489.3472662698</v>
+        <v>395801.9885951913</v>
       </c>
       <c r="M6" t="n">
-        <v>262882.0535373433</v>
+        <v>263194.6948662646</v>
       </c>
       <c r="N6" t="n">
-        <v>395489.34726627</v>
+        <v>395801.9885951911</v>
       </c>
       <c r="O6" t="n">
-        <v>395489.34726627</v>
+        <v>395801.9885951913</v>
       </c>
       <c r="P6" t="n">
-        <v>395489.3472662703</v>
+        <v>395801.9885951913</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241341</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>11.49758663287616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>325.5950022453499</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.506413012826</v>
       </c>
       <c r="I4" t="n">
-        <v>80.85095794181429</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>12.14208016757573</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>42.632317670048</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193757</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>8.614846600907129</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>342.2524805466031</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>42.63231767005013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>14.09847973279986</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319862</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>549.9198891312094</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319844</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34792,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.83623123219</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313189</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893641</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>270.4976243473736</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875417</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>407.323644686765</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875399</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
